--- a/設計書/Yanagisawa/プロジェクト型演習_成果物(タスク一覧画面).xlsx
+++ b/設計書/Yanagisawa/プロジェクト型演習_成果物(タスク一覧画面).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Desktop\Yanagisawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A34E12-8B14-4B39-A932-217D027B1AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9FED49-FAB9-4E88-90F9-F879EACF1A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="画面設計書" sheetId="5" r:id="rId3"/>
     <sheet name="詳細クラス図" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -607,7 +620,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -684,6 +697,13 @@
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1466,7 +1486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1647,6 +1667,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1812,6 +1838,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1866,29 +1922,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1907,24 +1951,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2007,7 +2033,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7772400" cy="1220387"/>
+    <xdr:ext cx="7696200" cy="1220387"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="図 11">
@@ -2021,7 +2047,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -2029,14 +2055,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect r="980"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="14668500"/>
-          <a:ext cx="7772400" cy="1220387"/>
+          <a:off x="333375" y="5657850"/>
+          <a:ext cx="7696200" cy="1220387"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2047,16 +2072,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2071,28 +2096,23 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="14354174"/>
-          <a:ext cx="1409700" cy="238125"/>
+          <a:off x="361950" y="5391150"/>
+          <a:ext cx="1266825" cy="276226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -2104,12 +2124,62 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" kern="1200"/>
             <a:t>メニュー画面へ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5C38C1-C6DF-68A7-4D96-1B65ACF6880C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="5660134"/>
+          <a:ext cx="1057275" cy="1188342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5709,85 +5779,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -5807,48 +5877,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="68" t="s">
+      <c r="H13" s="64"/>
+      <c r="I13" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="60"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="68">
+      <c r="G14" s="62"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="70">
         <v>45632</v>
       </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="60"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -5857,13 +5927,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -6882,19 +6952,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="101" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="101" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="89"/>
+      <c r="G1" s="91"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6906,192 +6976,192 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="102" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="102" t="s">
+      <c r="E2" s="105"/>
+      <c r="F2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="106">
+      <c r="G2" s="105"/>
+      <c r="H2" s="108">
         <v>45632</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="99"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="101"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="100"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="72" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="75" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="76"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="75" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="76"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="75" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="76"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="78"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="77" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="76"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="78"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="94" t="s">
+      <c r="A10" s="94"/>
+      <c r="B10" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="75" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="76"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="78"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94" t="s">
+      <c r="A11" s="95"/>
+      <c r="B11" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="77" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="76"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="77" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="76"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -8121,10 +8191,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8133,7 +8203,9 @@
     <col min="4" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
     <col min="9" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="17" width="8.7109375" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="17" width="8.7109375" customWidth="1"/>
     <col min="18" max="18" width="19.85546875" customWidth="1"/>
     <col min="19" max="19" width="30.5703125" customWidth="1"/>
     <col min="20" max="20" width="32.28515625" customWidth="1"/>
@@ -8146,151 +8218,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="113" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="114"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="116"/>
+      <c r="G1" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="114"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="121" t="s">
+      <c r="D2" s="128"/>
+      <c r="E2" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="125" t="s">
+      <c r="F2" s="134"/>
+      <c r="G2" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="126"/>
+      <c r="H2" s="138"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="128"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="140"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="115" t="s">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="129" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="130"/>
-      <c r="G4" s="131" t="s">
+      <c r="F4" s="142"/>
+      <c r="G4" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="132"/>
+      <c r="H4" s="144"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A5" s="119"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="113" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="131" t="s">
+      <c r="F5" s="116"/>
+      <c r="G5" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="132"/>
+      <c r="H5" s="144"/>
     </row>
     <row r="6" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="115" t="s">
+      <c r="B6" s="128"/>
+      <c r="C6" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="115" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="116"/>
-      <c r="G6" s="150" t="s">
+      <c r="F6" s="128"/>
+      <c r="G6" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="126"/>
+      <c r="H6" s="138"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="119"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="128"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="140"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="150" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="121" t="s">
+      <c r="D8" s="138"/>
+      <c r="E8" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="150" t="s">
+      <c r="F8" s="134"/>
+      <c r="G8" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="126"/>
+      <c r="H8" s="138"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="128"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="140"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="139" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="139" t="s">
+      <c r="E10" s="124"/>
+      <c r="F10" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="140"/>
+      <c r="G10" s="124"/>
       <c r="H10" s="21" t="s">
         <v>5</v>
       </c>
@@ -8302,55 +8374,55 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="136"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="141" t="s">
+      <c r="A11" s="120"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="141" t="s">
+      <c r="E11" s="150"/>
+      <c r="F11" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="142"/>
-      <c r="H11" s="144">
+      <c r="G11" s="150"/>
+      <c r="H11" s="152">
         <v>45632</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="147"/>
+      <c r="J11" s="145"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="136"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="148"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="149"/>
+      <c r="A13" s="120"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="147"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="154"/>
-      <c r="C14" s="140"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="124"/>
       <c r="D14" s="48" t="s">
         <v>56</v>
       </c>
@@ -8387,7 +8459,7 @@
       <c r="I16" s="41"/>
       <c r="J16" s="42"/>
     </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1">
       <c r="A17" s="43"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
@@ -8399,7 +8471,7 @@
       <c r="I17" s="52"/>
       <c r="J17" s="44"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1">
       <c r="A18" s="43"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
@@ -8411,7 +8483,7 @@
       <c r="I18" s="52"/>
       <c r="J18" s="44"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1">
       <c r="A19" s="43"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
@@ -8422,8 +8494,9 @@
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
       <c r="J19" s="44"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
+      <c r="M19" s="60"/>
+    </row>
+    <row r="20" spans="1:13" ht="19.5" customHeight="1">
       <c r="A20" s="43"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -8434,8 +8507,9 @@
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="44"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
+      <c r="M20" s="60"/>
+    </row>
+    <row r="21" spans="1:13" ht="19.5" customHeight="1">
       <c r="A21" s="43"/>
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
@@ -8446,8 +8520,9 @@
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="44"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+      <c r="M21" s="61"/>
+    </row>
+    <row r="22" spans="1:13" ht="19.5" customHeight="1">
       <c r="A22" s="43"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -8458,8 +8533,9 @@
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="44"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
+      <c r="M22" s="61"/>
+    </row>
+    <row r="23" spans="1:13" ht="19.5" customHeight="1">
       <c r="A23" s="43"/>
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
@@ -8470,8 +8546,9 @@
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="44"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+      <c r="M23" s="61"/>
+    </row>
+    <row r="24" spans="1:13" ht="12.75" customHeight="1">
       <c r="A24" s="43"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
@@ -8483,7 +8560,7 @@
       <c r="I24" s="52"/>
       <c r="J24" s="44"/>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+    <row r="25" spans="1:13" ht="12.75" customHeight="1">
       <c r="A25" s="43"/>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
@@ -8495,7 +8572,7 @@
       <c r="I25" s="52"/>
       <c r="J25" s="44"/>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+    <row r="26" spans="1:13" ht="12.75" customHeight="1">
       <c r="A26" s="43"/>
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
@@ -8507,7 +8584,7 @@
       <c r="I26" s="52"/>
       <c r="J26" s="44"/>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+    <row r="27" spans="1:13" ht="12.75" customHeight="1">
       <c r="A27" s="43"/>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
@@ -8519,7 +8596,7 @@
       <c r="I27" s="52"/>
       <c r="J27" s="44"/>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+    <row r="28" spans="1:13" ht="12.75" customHeight="1">
       <c r="A28" s="43"/>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -8531,7 +8608,7 @@
       <c r="I28" s="52"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+    <row r="29" spans="1:13" ht="12.75" customHeight="1">
       <c r="A29" s="43"/>
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
@@ -8543,7 +8620,7 @@
       <c r="I29" s="52"/>
       <c r="J29" s="44"/>
     </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+    <row r="30" spans="1:13" ht="12.75" customHeight="1">
       <c r="A30" s="43"/>
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
@@ -8555,7 +8632,7 @@
       <c r="I30" s="52"/>
       <c r="J30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+    <row r="31" spans="1:13" ht="12.75" customHeight="1">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -8567,7 +8644,7 @@
       <c r="I31" s="46"/>
       <c r="J31" s="47"/>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+    <row r="32" spans="1:13" ht="12.75" customHeight="1">
       <c r="A32" s="57" t="s">
         <v>21</v>
       </c>
@@ -8582,31 +8659,31 @@
       <c r="J32" s="51"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A33" s="151" t="s">
+      <c r="A33" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="152" t="s">
+      <c r="B33" s="113"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="114"/>
       <c r="I33" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A34" s="151" t="s">
+      <c r="A34" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="112"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="26" t="s">
         <v>25</v>
       </c>
@@ -8626,11 +8703,11 @@
       <c r="J34" s="51"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28" t="s">
         <v>57</v>
@@ -8646,9 +8723,9 @@
       <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A36" s="110"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="112"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="29"/>
@@ -8658,9 +8735,9 @@
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A37" s="110"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="112"/>
+      <c r="A37" s="112"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="114"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="29"/>
@@ -8670,9 +8747,9 @@
       <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A38" s="110"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="112"/>
+      <c r="A38" s="112"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="114"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="F38" s="29"/>
@@ -8682,9 +8759,9 @@
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A39" s="110"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="112"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
@@ -8694,9 +8771,9 @@
       <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A40" s="110"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="112"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
@@ -8706,9 +8783,9 @@
       <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A41" s="107"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="109"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="33"/>
@@ -8732,31 +8809,31 @@
       <c r="J42" s="56"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A43" s="151" t="s">
+      <c r="A43" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="111"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="152" t="s">
+      <c r="B43" s="113"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="112"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="114"/>
       <c r="I43" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A44" s="151" t="s">
+      <c r="A44" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="112"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="114"/>
       <c r="D44" s="26" t="s">
         <v>25</v>
       </c>
@@ -8776,11 +8853,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="111"/>
-      <c r="C45" s="112"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28" t="s">
         <v>57</v>
@@ -8796,9 +8873,9 @@
       <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A46" s="110"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="112"/>
+      <c r="A46" s="112"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
       <c r="F46" s="29"/>
@@ -8808,9 +8885,9 @@
       <c r="J46" s="25"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A47" s="110"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="112"/>
+      <c r="A47" s="112"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
       <c r="F47" s="29"/>
@@ -8820,9 +8897,9 @@
       <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A48" s="110"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="112"/>
+      <c r="A48" s="112"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
       <c r="F48" s="29"/>
@@ -8832,9 +8909,9 @@
       <c r="J48" s="25"/>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A49" s="110"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="112"/>
+      <c r="A49" s="112"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
       <c r="F49" s="29"/>
@@ -8844,9 +8921,9 @@
       <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A50" s="110"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="112"/>
+      <c r="A50" s="112"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
       <c r="F50" s="29"/>
@@ -8856,9 +8933,9 @@
       <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A51" s="107"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="109"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
       <c r="F51" s="33"/>
@@ -9882,7 +9959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -9895,19 +9972,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="168" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="169"/>
-      <c r="F1" s="170" t="s">
+      <c r="E1" s="171"/>
+      <c r="F1" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="169"/>
+      <c r="G1" s="171"/>
       <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
@@ -9922,50 +9999,50 @@
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="162" t="s">
+      <c r="A2" s="167"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="164"/>
-      <c r="F2" s="162" t="s">
+      <c r="E2" s="166"/>
+      <c r="F2" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="164"/>
-      <c r="H2" s="155">
+      <c r="G2" s="166"/>
+      <c r="H2" s="157">
         <v>45632</v>
       </c>
-      <c r="I2" s="158" t="s">
+      <c r="I2" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="159"/>
+      <c r="J2" s="161"/>
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="160"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="162"/>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1">
-      <c r="A4" s="166"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="161"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="163"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1">

--- a/設計書/Yanagisawa/プロジェクト型演習_成果物(タスク一覧画面).xlsx
+++ b/設計書/Yanagisawa/プロジェクト型演習_成果物(タスク一覧画面).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Desktop\Yanagisawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9FED49-FAB9-4E88-90F9-F879EACF1A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F0EC6D-B285-44A5-971A-B30F0172BC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1700,119 +1700,143 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1823,14 +1847,74 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1838,6 +1922,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1851,111 +1956,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5767,9 +5767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:K14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6952,19 +6950,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="103" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="103" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="91"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6976,72 +6974,72 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="85"/>
+      <c r="A2" s="96"/>
       <c r="B2" s="66"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="104" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="104" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="108">
+      <c r="G2" s="74"/>
+      <c r="H2" s="79">
         <v>45632</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="100"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="85"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="66"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="101"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="102"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="108" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="63"/>
@@ -7049,15 +7047,15 @@
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
       <c r="I6" s="63"/>
-      <c r="J6" s="78"/>
+      <c r="J6" s="89"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="87" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="64"/>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="108" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="63"/>
@@ -7065,15 +7063,15 @@
       <c r="G7" s="63"/>
       <c r="H7" s="63"/>
       <c r="I7" s="63"/>
-      <c r="J7" s="78"/>
+      <c r="J7" s="89"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="87" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="108" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="63"/>
@@ -7081,17 +7079,17 @@
       <c r="G8" s="63"/>
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
-      <c r="J8" s="78"/>
+      <c r="J8" s="89"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="86" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="64"/>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="88" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="63"/>
@@ -7099,15 +7097,15 @@
       <c r="G9" s="63"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
-      <c r="J9" s="78"/>
+      <c r="J9" s="89"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="96" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="86" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="64"/>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="108" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="63"/>
@@ -7115,15 +7113,15 @@
       <c r="G10" s="63"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
-      <c r="J10" s="78"/>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="95"/>
-      <c r="B11" s="96" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="86" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="64"/>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="88" t="s">
         <v>77</v>
       </c>
       <c r="E11" s="63"/>
@@ -7131,15 +7129,15 @@
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
-      <c r="J11" s="78"/>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="87" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="64"/>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="88" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="63"/>
@@ -7147,21 +7145,21 @@
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
-      <c r="J12" s="78"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -8152,17 +8150,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -8171,14 +8166,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -8193,7 +8191,7 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -8218,151 +8216,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="115" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="115" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="115" t="s">
+      <c r="F1" s="144"/>
+      <c r="G1" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="116"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="127" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="133" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="134"/>
-      <c r="G2" s="137" t="s">
+      <c r="F2" s="132"/>
+      <c r="G2" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="138"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A4" s="129"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="127" t="s">
+      <c r="A4" s="145"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="141" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143" t="s">
+      <c r="F4" s="149"/>
+      <c r="G4" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="144"/>
+      <c r="H4" s="151"/>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="115" t="s">
+      <c r="A5" s="125"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="143" t="s">
+      <c r="F5" s="144"/>
+      <c r="G5" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="144"/>
+      <c r="H5" s="151"/>
     </row>
     <row r="6" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="127" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="127" t="s">
+      <c r="D6" s="124"/>
+      <c r="E6" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="128"/>
-      <c r="G6" s="148" t="s">
+      <c r="F6" s="124"/>
+      <c r="G6" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="138"/>
+      <c r="H6" s="128"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="131"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="140"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="130"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="148" t="s">
+      <c r="B8" s="124"/>
+      <c r="C8" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="133" t="s">
+      <c r="D8" s="128"/>
+      <c r="E8" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="134"/>
-      <c r="G8" s="148" t="s">
+      <c r="F8" s="132"/>
+      <c r="G8" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="138"/>
+      <c r="H8" s="128"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A9" s="131"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="130"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="123" t="s">
+      <c r="B10" s="153"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="123" t="s">
+      <c r="E10" s="114"/>
+      <c r="F10" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="124"/>
+      <c r="G10" s="114"/>
       <c r="H10" s="21" t="s">
         <v>5</v>
       </c>
@@ -8374,55 +8372,55 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="120"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="149" t="s">
+      <c r="A11" s="155"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="150"/>
-      <c r="F11" s="149" t="s">
+      <c r="E11" s="137"/>
+      <c r="F11" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="150"/>
-      <c r="H11" s="152">
+      <c r="G11" s="137"/>
+      <c r="H11" s="140">
         <v>45632</v>
       </c>
-      <c r="I11" s="154" t="s">
+      <c r="I11" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="145"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="120"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="146"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="121"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="120"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="147"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="156"/>
-      <c r="C14" s="124"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="48" t="s">
         <v>56</v>
       </c>
@@ -8659,18 +8657,18 @@
       <c r="J32" s="51"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A33" s="125" t="s">
+      <c r="A33" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="126" t="s">
+      <c r="B33" s="110"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="114"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="111"/>
       <c r="I33" s="26" t="s">
         <v>23</v>
       </c>
@@ -8679,11 +8677,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="113"/>
-      <c r="C34" s="114"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="26" t="s">
         <v>25</v>
       </c>
@@ -8703,11 +8701,11 @@
       <c r="J34" s="51"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="113"/>
-      <c r="C35" s="114"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28" t="s">
         <v>57</v>
@@ -8723,9 +8721,9 @@
       <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A36" s="112"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="114"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="111"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="29"/>
@@ -8735,9 +8733,9 @@
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A37" s="112"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="114"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="29"/>
@@ -8747,9 +8745,9 @@
       <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A38" s="112"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="114"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="111"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="F38" s="29"/>
@@ -8759,9 +8757,9 @@
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A39" s="112"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="114"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
@@ -8771,9 +8769,9 @@
       <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A40" s="112"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="114"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
       <c r="F40" s="29"/>
@@ -8783,9 +8781,9 @@
       <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A41" s="109"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="111"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="119"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="33"/>
@@ -8809,18 +8807,18 @@
       <c r="J42" s="56"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A43" s="125" t="s">
+      <c r="A43" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="113"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="126" t="s">
+      <c r="B43" s="110"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="114"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="111"/>
       <c r="I43" s="26" t="s">
         <v>23</v>
       </c>
@@ -8829,11 +8827,11 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A44" s="125" t="s">
+      <c r="A44" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="114"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="26" t="s">
         <v>25</v>
       </c>
@@ -8853,11 +8851,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A45" s="112" t="s">
+      <c r="A45" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="113"/>
-      <c r="C45" s="114"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28" t="s">
         <v>57</v>
@@ -8873,9 +8871,9 @@
       <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A46" s="112"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
       <c r="F46" s="29"/>
@@ -8885,9 +8883,9 @@
       <c r="J46" s="25"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A47" s="112"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
       <c r="F47" s="29"/>
@@ -8897,9 +8895,9 @@
       <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A48" s="112"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="114"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
       <c r="F48" s="29"/>
@@ -8909,9 +8907,9 @@
       <c r="J48" s="25"/>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A49" s="112"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="114"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
       <c r="F49" s="29"/>
@@ -8921,9 +8919,9 @@
       <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A50" s="112"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="114"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
       <c r="F50" s="29"/>
@@ -8933,9 +8931,9 @@
       <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A51" s="109"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="111"/>
+      <c r="A51" s="117"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="119"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
       <c r="F51" s="33"/>
@@ -9897,40 +9895,6 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E13"/>
-    <mergeCell ref="F11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B5"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A37:C37"/>
@@ -9947,6 +9911,40 @@
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E13"/>
+    <mergeCell ref="F11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
